--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1466A8E0-6820-439E-8CBC-CF568128DC67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53DDC16C-FB4D-40E3-A1E5-CBFA8DF8BC66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="139">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -571,6 +571,24 @@
   <si>
     <t>수미산노리개3</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수미산검4</t>
+  </si>
+  <si>
+    <t>수미산검5</t>
+  </si>
+  <si>
+    <t>수미산검6</t>
+  </si>
+  <si>
+    <t>수미산노리개4</t>
+  </si>
+  <si>
+    <t>수미산노리개5</t>
+  </si>
+  <si>
+    <t>수미산노리개6</t>
   </si>
 </sst>
 </file>
@@ -996,7 +1014,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1004,11 +1022,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:R126"/>
+  <dimension ref="A1:R132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F125" sqref="F125"/>
+      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F131" sqref="F131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7726,6 +7744,324 @@
         <v>0</v>
       </c>
     </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A127" s="3">
+        <v>125</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C127" s="3">
+        <v>3</v>
+      </c>
+      <c r="D127" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E127" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F127" s="3">
+        <v>43</v>
+      </c>
+      <c r="G127" s="3">
+        <v>0</v>
+      </c>
+      <c r="H127" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="I127" s="3">
+        <v>27</v>
+      </c>
+      <c r="J127" s="3">
+        <v>0</v>
+      </c>
+      <c r="K127" s="3">
+        <v>30</v>
+      </c>
+      <c r="L127" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M127" s="3">
+        <v>0</v>
+      </c>
+      <c r="N127" s="3">
+        <v>0</v>
+      </c>
+      <c r="O127" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P127" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q127" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A128" s="3">
+        <v>126</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C128" s="3">
+        <v>3</v>
+      </c>
+      <c r="D128" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E128" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F128" s="3">
+        <v>43</v>
+      </c>
+      <c r="G128" s="3">
+        <v>0</v>
+      </c>
+      <c r="H128" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I128" s="3">
+        <v>27</v>
+      </c>
+      <c r="J128" s="3">
+        <v>0</v>
+      </c>
+      <c r="K128" s="3">
+        <v>30</v>
+      </c>
+      <c r="L128" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M128" s="3">
+        <v>0</v>
+      </c>
+      <c r="N128" s="3">
+        <v>0</v>
+      </c>
+      <c r="O128" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P128" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q128" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A129" s="3">
+        <v>127</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C129" s="3">
+        <v>3</v>
+      </c>
+      <c r="D129" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E129" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F129" s="3">
+        <v>43</v>
+      </c>
+      <c r="G129" s="3">
+        <v>0</v>
+      </c>
+      <c r="H129" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="I129" s="3">
+        <v>27</v>
+      </c>
+      <c r="J129" s="3">
+        <v>0</v>
+      </c>
+      <c r="K129" s="3">
+        <v>30</v>
+      </c>
+      <c r="L129" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M129" s="3">
+        <v>0</v>
+      </c>
+      <c r="N129" s="3">
+        <v>0</v>
+      </c>
+      <c r="O129" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P129" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q129" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A130" s="3">
+        <v>128</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C130" s="3">
+        <v>4</v>
+      </c>
+      <c r="D130" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E130" s="3">
+        <v>300000</v>
+      </c>
+      <c r="F130" s="3">
+        <v>43</v>
+      </c>
+      <c r="G130" s="3">
+        <v>0</v>
+      </c>
+      <c r="H130" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="I130" s="3">
+        <v>4</v>
+      </c>
+      <c r="J130" s="3">
+        <v>1500000</v>
+      </c>
+      <c r="K130" s="3">
+        <v>125000</v>
+      </c>
+      <c r="L130" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M130" s="3">
+        <v>0</v>
+      </c>
+      <c r="N130" s="3">
+        <v>0</v>
+      </c>
+      <c r="O130" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P130" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q130" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A131" s="3">
+        <v>129</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C131" s="3">
+        <v>4</v>
+      </c>
+      <c r="D131" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E131" s="3">
+        <v>300000</v>
+      </c>
+      <c r="F131" s="3">
+        <v>43</v>
+      </c>
+      <c r="G131" s="3">
+        <v>0</v>
+      </c>
+      <c r="H131" s="3">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="I131" s="3">
+        <v>4</v>
+      </c>
+      <c r="J131" s="3">
+        <v>1600000</v>
+      </c>
+      <c r="K131" s="3">
+        <v>130000</v>
+      </c>
+      <c r="L131" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M131" s="3">
+        <v>0</v>
+      </c>
+      <c r="N131" s="3">
+        <v>0</v>
+      </c>
+      <c r="O131" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P131" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q131" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A132" s="3">
+        <v>130</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C132" s="3">
+        <v>4</v>
+      </c>
+      <c r="D132" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E132" s="3">
+        <v>300000</v>
+      </c>
+      <c r="F132" s="3">
+        <v>43</v>
+      </c>
+      <c r="G132" s="3">
+        <v>0</v>
+      </c>
+      <c r="H132" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="I132" s="3">
+        <v>4</v>
+      </c>
+      <c r="J132" s="3">
+        <v>1700000</v>
+      </c>
+      <c r="K132" s="3">
+        <v>135000</v>
+      </c>
+      <c r="L132" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M132" s="3">
+        <v>0</v>
+      </c>
+      <c r="N132" s="3">
+        <v>0</v>
+      </c>
+      <c r="O132" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P132" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q132" s="3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53DDC16C-FB4D-40E3-A1E5-CBFA8DF8BC66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F77574-036C-4007-9059-9D9429D5339A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="147">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -589,6 +589,32 @@
   </si>
   <si>
     <t>수미산노리개6</t>
+  </si>
+  <si>
+    <t>도둑검0</t>
+  </si>
+  <si>
+    <t>도둑검1</t>
+  </si>
+  <si>
+    <t>도둑검2</t>
+  </si>
+  <si>
+    <t>도둑검3</t>
+  </si>
+  <si>
+    <t>도둑노리개0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도둑노리개1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도둑노리개2</t>
+  </si>
+  <si>
+    <t>도둑노리개3</t>
   </si>
 </sst>
 </file>
@@ -1022,11 +1048,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:R132"/>
+  <dimension ref="A1:R140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F131" sqref="F131"/>
+      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H137" sqref="H137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8062,6 +8088,430 @@
         <v>0</v>
       </c>
     </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A133" s="3">
+        <v>131</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C133" s="3">
+        <v>3</v>
+      </c>
+      <c r="D133" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E133" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F133" s="3">
+        <v>47</v>
+      </c>
+      <c r="G133" s="3">
+        <v>0</v>
+      </c>
+      <c r="H133" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I133" s="3">
+        <v>27</v>
+      </c>
+      <c r="J133" s="3">
+        <v>0</v>
+      </c>
+      <c r="K133" s="3">
+        <v>30</v>
+      </c>
+      <c r="L133" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M133" s="3">
+        <v>0</v>
+      </c>
+      <c r="N133" s="3">
+        <v>0</v>
+      </c>
+      <c r="O133" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P133" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q133" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A134" s="3">
+        <v>132</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C134" s="3">
+        <v>3</v>
+      </c>
+      <c r="D134" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E134" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F134" s="3">
+        <v>47</v>
+      </c>
+      <c r="G134" s="3">
+        <v>0</v>
+      </c>
+      <c r="H134" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="I134" s="3">
+        <v>27</v>
+      </c>
+      <c r="J134" s="3">
+        <v>0</v>
+      </c>
+      <c r="K134" s="3">
+        <v>30</v>
+      </c>
+      <c r="L134" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M134" s="3">
+        <v>0</v>
+      </c>
+      <c r="N134" s="3">
+        <v>0</v>
+      </c>
+      <c r="O134" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P134" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q134" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A135" s="3">
+        <v>133</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C135" s="3">
+        <v>3</v>
+      </c>
+      <c r="D135" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E135" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F135" s="3">
+        <v>47</v>
+      </c>
+      <c r="G135" s="3">
+        <v>0</v>
+      </c>
+      <c r="H135" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="I135" s="3">
+        <v>27</v>
+      </c>
+      <c r="J135" s="3">
+        <v>0</v>
+      </c>
+      <c r="K135" s="3">
+        <v>30</v>
+      </c>
+      <c r="L135" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M135" s="3">
+        <v>0</v>
+      </c>
+      <c r="N135" s="3">
+        <v>0</v>
+      </c>
+      <c r="O135" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P135" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q135" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A136" s="3">
+        <v>134</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C136" s="3">
+        <v>3</v>
+      </c>
+      <c r="D136" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E136" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F136" s="3">
+        <v>47</v>
+      </c>
+      <c r="G136" s="3">
+        <v>0</v>
+      </c>
+      <c r="H136" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="I136" s="3">
+        <v>27</v>
+      </c>
+      <c r="J136" s="3">
+        <v>0</v>
+      </c>
+      <c r="K136" s="3">
+        <v>30</v>
+      </c>
+      <c r="L136" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M136" s="3">
+        <v>0</v>
+      </c>
+      <c r="N136" s="3">
+        <v>0</v>
+      </c>
+      <c r="O136" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P136" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q136" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A137" s="3">
+        <v>135</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C137" s="3">
+        <v>4</v>
+      </c>
+      <c r="D137" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E137" s="3">
+        <v>300000</v>
+      </c>
+      <c r="F137" s="3">
+        <v>47</v>
+      </c>
+      <c r="G137" s="3">
+        <v>0</v>
+      </c>
+      <c r="H137" s="3">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="I137" s="3">
+        <v>4</v>
+      </c>
+      <c r="J137" s="3">
+        <v>1800000</v>
+      </c>
+      <c r="K137" s="3">
+        <v>140000</v>
+      </c>
+      <c r="L137" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M137" s="3">
+        <v>0</v>
+      </c>
+      <c r="N137" s="3">
+        <v>0</v>
+      </c>
+      <c r="O137" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P137" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q137" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A138" s="3">
+        <v>136</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C138" s="3">
+        <v>4</v>
+      </c>
+      <c r="D138" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E138" s="3">
+        <v>300000</v>
+      </c>
+      <c r="F138" s="3">
+        <v>47</v>
+      </c>
+      <c r="G138" s="3">
+        <v>0</v>
+      </c>
+      <c r="H138" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I138" s="3">
+        <v>4</v>
+      </c>
+      <c r="J138" s="3">
+        <v>1900000</v>
+      </c>
+      <c r="K138" s="3">
+        <v>145000</v>
+      </c>
+      <c r="L138" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M138" s="3">
+        <v>0</v>
+      </c>
+      <c r="N138" s="3">
+        <v>0</v>
+      </c>
+      <c r="O138" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P138" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q138" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A139" s="3">
+        <v>137</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C139" s="3">
+        <v>4</v>
+      </c>
+      <c r="D139" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E139" s="3">
+        <v>300000</v>
+      </c>
+      <c r="F139" s="3">
+        <v>47</v>
+      </c>
+      <c r="G139" s="3">
+        <v>0</v>
+      </c>
+      <c r="H139" s="3">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="I139" s="3">
+        <v>4</v>
+      </c>
+      <c r="J139" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="K139" s="3">
+        <v>150000</v>
+      </c>
+      <c r="L139" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M139" s="3">
+        <v>0</v>
+      </c>
+      <c r="N139" s="3">
+        <v>0</v>
+      </c>
+      <c r="O139" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P139" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q139" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A140" s="3">
+        <v>138</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C140" s="3">
+        <v>4</v>
+      </c>
+      <c r="D140" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E140" s="3">
+        <v>300000</v>
+      </c>
+      <c r="F140" s="3">
+        <v>47</v>
+      </c>
+      <c r="G140" s="3">
+        <v>0</v>
+      </c>
+      <c r="H140" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="I140" s="3">
+        <v>4</v>
+      </c>
+      <c r="J140" s="3">
+        <v>2100000</v>
+      </c>
+      <c r="K140" s="3">
+        <v>155000</v>
+      </c>
+      <c r="L140" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M140" s="3">
+        <v>0</v>
+      </c>
+      <c r="N140" s="3">
+        <v>0</v>
+      </c>
+      <c r="O140" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P140" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q140" s="3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F77574-036C-4007-9059-9D9429D5339A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8400AD22-73E9-4332-A224-492E9F1C89F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="153">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -615,6 +615,26 @@
   </si>
   <si>
     <t>도둑노리개3</t>
+  </si>
+  <si>
+    <t>닌자검0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닌자검1</t>
+  </si>
+  <si>
+    <t>닌자검2</t>
+  </si>
+  <si>
+    <t>닌자노리개0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닌자노리개1</t>
+  </si>
+  <si>
+    <t>닌자노리개2</t>
   </si>
 </sst>
 </file>
@@ -1048,11 +1068,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:R140"/>
+  <dimension ref="A1:R146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H137" sqref="H137"/>
+      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B143" sqref="B143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8512,6 +8532,324 @@
         <v>0</v>
       </c>
     </row>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A141" s="3">
+        <v>139</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C141" s="3">
+        <v>3</v>
+      </c>
+      <c r="D141" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E141" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F141" s="3">
+        <v>47</v>
+      </c>
+      <c r="G141" s="3">
+        <v>0</v>
+      </c>
+      <c r="H141" s="3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I141" s="3">
+        <v>27</v>
+      </c>
+      <c r="J141" s="3">
+        <v>0</v>
+      </c>
+      <c r="K141" s="3">
+        <v>30</v>
+      </c>
+      <c r="L141" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M141" s="3">
+        <v>0</v>
+      </c>
+      <c r="N141" s="3">
+        <v>0</v>
+      </c>
+      <c r="O141" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P141" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q141" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A142" s="3">
+        <v>140</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C142" s="3">
+        <v>3</v>
+      </c>
+      <c r="D142" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E142" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F142" s="3">
+        <v>47</v>
+      </c>
+      <c r="G142" s="3">
+        <v>0</v>
+      </c>
+      <c r="H142" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="I142" s="3">
+        <v>27</v>
+      </c>
+      <c r="J142" s="3">
+        <v>0</v>
+      </c>
+      <c r="K142" s="3">
+        <v>30</v>
+      </c>
+      <c r="L142" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M142" s="3">
+        <v>0</v>
+      </c>
+      <c r="N142" s="3">
+        <v>0</v>
+      </c>
+      <c r="O142" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P142" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q142" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A143" s="3">
+        <v>141</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C143" s="3">
+        <v>3</v>
+      </c>
+      <c r="D143" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E143" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F143" s="3">
+        <v>47</v>
+      </c>
+      <c r="G143" s="3">
+        <v>0</v>
+      </c>
+      <c r="H143" s="3">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="I143" s="3">
+        <v>27</v>
+      </c>
+      <c r="J143" s="3">
+        <v>0</v>
+      </c>
+      <c r="K143" s="3">
+        <v>30</v>
+      </c>
+      <c r="L143" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M143" s="3">
+        <v>0</v>
+      </c>
+      <c r="N143" s="3">
+        <v>0</v>
+      </c>
+      <c r="O143" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P143" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q143" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A144" s="3">
+        <v>142</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C144" s="3">
+        <v>4</v>
+      </c>
+      <c r="D144" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E144" s="3">
+        <v>300000</v>
+      </c>
+      <c r="F144" s="3">
+        <v>47</v>
+      </c>
+      <c r="G144" s="3">
+        <v>0</v>
+      </c>
+      <c r="H144" s="3">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="I144" s="3">
+        <v>4</v>
+      </c>
+      <c r="J144" s="3">
+        <v>2200000</v>
+      </c>
+      <c r="K144" s="3">
+        <v>160000</v>
+      </c>
+      <c r="L144" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M144" s="3">
+        <v>0</v>
+      </c>
+      <c r="N144" s="3">
+        <v>0</v>
+      </c>
+      <c r="O144" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P144" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q144" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A145" s="3">
+        <v>143</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C145" s="3">
+        <v>4</v>
+      </c>
+      <c r="D145" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E145" s="3">
+        <v>300000</v>
+      </c>
+      <c r="F145" s="3">
+        <v>47</v>
+      </c>
+      <c r="G145" s="3">
+        <v>0</v>
+      </c>
+      <c r="H145" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="I145" s="3">
+        <v>4</v>
+      </c>
+      <c r="J145" s="3">
+        <v>2300000</v>
+      </c>
+      <c r="K145" s="3">
+        <v>165000</v>
+      </c>
+      <c r="L145" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M145" s="3">
+        <v>0</v>
+      </c>
+      <c r="N145" s="3">
+        <v>0</v>
+      </c>
+      <c r="O145" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P145" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q145" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A146" s="3">
+        <v>144</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C146" s="3">
+        <v>4</v>
+      </c>
+      <c r="D146" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E146" s="3">
+        <v>300000</v>
+      </c>
+      <c r="F146" s="3">
+        <v>47</v>
+      </c>
+      <c r="G146" s="3">
+        <v>0</v>
+      </c>
+      <c r="H146" s="3">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="I146" s="3">
+        <v>4</v>
+      </c>
+      <c r="J146" s="3">
+        <v>2400000</v>
+      </c>
+      <c r="K146" s="3">
+        <v>170000</v>
+      </c>
+      <c r="L146" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M146" s="3">
+        <v>0</v>
+      </c>
+      <c r="N146" s="3">
+        <v>0</v>
+      </c>
+      <c r="O146" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P146" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q146" s="3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8400AD22-73E9-4332-A224-492E9F1C89F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEFF121-5A3A-47F7-8689-45E0DD8111F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="161">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -635,6 +635,32 @@
   </si>
   <si>
     <t>닌자노리개2</t>
+  </si>
+  <si>
+    <t>보스검0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스검1</t>
+  </si>
+  <si>
+    <t>보스검2</t>
+  </si>
+  <si>
+    <t>보스검3</t>
+  </si>
+  <si>
+    <t>노리개0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노리개1</t>
+  </si>
+  <si>
+    <t>노리개2</t>
+  </si>
+  <si>
+    <t>노리개3</t>
   </si>
 </sst>
 </file>
@@ -1068,11 +1094,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:R146"/>
+  <dimension ref="A1:R154"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B143" sqref="B143"/>
+      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A147" sqref="A147:XFD147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8850,6 +8876,430 @@
         <v>0</v>
       </c>
     </row>
+    <row r="147" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A147" s="3">
+        <v>145</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C147" s="3">
+        <v>3</v>
+      </c>
+      <c r="D147" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E147" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F147" s="3">
+        <v>47</v>
+      </c>
+      <c r="G147" s="3">
+        <v>0</v>
+      </c>
+      <c r="H147" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="I147" s="3">
+        <v>27</v>
+      </c>
+      <c r="J147" s="3">
+        <v>0</v>
+      </c>
+      <c r="K147" s="3">
+        <v>30</v>
+      </c>
+      <c r="L147" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M147" s="3">
+        <v>0</v>
+      </c>
+      <c r="N147" s="3">
+        <v>0</v>
+      </c>
+      <c r="O147" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P147" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q147" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A148" s="3">
+        <v>146</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C148" s="3">
+        <v>3</v>
+      </c>
+      <c r="D148" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E148" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F148" s="3">
+        <v>47</v>
+      </c>
+      <c r="G148" s="3">
+        <v>0</v>
+      </c>
+      <c r="H148" s="3">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="I148" s="3">
+        <v>27</v>
+      </c>
+      <c r="J148" s="3">
+        <v>0</v>
+      </c>
+      <c r="K148" s="3">
+        <v>30</v>
+      </c>
+      <c r="L148" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M148" s="3">
+        <v>0</v>
+      </c>
+      <c r="N148" s="3">
+        <v>0</v>
+      </c>
+      <c r="O148" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P148" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q148" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A149" s="3">
+        <v>147</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C149" s="3">
+        <v>3</v>
+      </c>
+      <c r="D149" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E149" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F149" s="3">
+        <v>47</v>
+      </c>
+      <c r="G149" s="3">
+        <v>0</v>
+      </c>
+      <c r="H149" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="I149" s="3">
+        <v>27</v>
+      </c>
+      <c r="J149" s="3">
+        <v>0</v>
+      </c>
+      <c r="K149" s="3">
+        <v>30</v>
+      </c>
+      <c r="L149" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M149" s="3">
+        <v>0</v>
+      </c>
+      <c r="N149" s="3">
+        <v>0</v>
+      </c>
+      <c r="O149" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P149" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q149" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A150" s="3">
+        <v>148</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C150" s="3">
+        <v>3</v>
+      </c>
+      <c r="D150" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E150" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F150" s="3">
+        <v>47</v>
+      </c>
+      <c r="G150" s="3">
+        <v>0</v>
+      </c>
+      <c r="H150" s="3">
+        <v>5.5E-2</v>
+      </c>
+      <c r="I150" s="3">
+        <v>27</v>
+      </c>
+      <c r="J150" s="3">
+        <v>0</v>
+      </c>
+      <c r="K150" s="3">
+        <v>30</v>
+      </c>
+      <c r="L150" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M150" s="3">
+        <v>0</v>
+      </c>
+      <c r="N150" s="3">
+        <v>0</v>
+      </c>
+      <c r="O150" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P150" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q150" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A151" s="3">
+        <v>149</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C151" s="3">
+        <v>4</v>
+      </c>
+      <c r="D151" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E151" s="3">
+        <v>300000</v>
+      </c>
+      <c r="F151" s="3">
+        <v>47</v>
+      </c>
+      <c r="G151" s="3">
+        <v>0</v>
+      </c>
+      <c r="H151" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="I151" s="3">
+        <v>4</v>
+      </c>
+      <c r="J151" s="3">
+        <v>2500000</v>
+      </c>
+      <c r="K151" s="3">
+        <v>175000</v>
+      </c>
+      <c r="L151" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M151" s="3">
+        <v>0</v>
+      </c>
+      <c r="N151" s="3">
+        <v>0</v>
+      </c>
+      <c r="O151" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P151" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q151" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A152" s="3">
+        <v>150</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C152" s="3">
+        <v>4</v>
+      </c>
+      <c r="D152" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E152" s="3">
+        <v>300000</v>
+      </c>
+      <c r="F152" s="3">
+        <v>47</v>
+      </c>
+      <c r="G152" s="3">
+        <v>0</v>
+      </c>
+      <c r="H152" s="3">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="I152" s="3">
+        <v>4</v>
+      </c>
+      <c r="J152" s="3">
+        <v>2600000</v>
+      </c>
+      <c r="K152" s="3">
+        <v>180000</v>
+      </c>
+      <c r="L152" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M152" s="3">
+        <v>0</v>
+      </c>
+      <c r="N152" s="3">
+        <v>0</v>
+      </c>
+      <c r="O152" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P152" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q152" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A153" s="3">
+        <v>151</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C153" s="3">
+        <v>4</v>
+      </c>
+      <c r="D153" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E153" s="3">
+        <v>300000</v>
+      </c>
+      <c r="F153" s="3">
+        <v>47</v>
+      </c>
+      <c r="G153" s="3">
+        <v>0</v>
+      </c>
+      <c r="H153" s="3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I153" s="3">
+        <v>4</v>
+      </c>
+      <c r="J153" s="3">
+        <v>2700000</v>
+      </c>
+      <c r="K153" s="3">
+        <v>185000</v>
+      </c>
+      <c r="L153" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M153" s="3">
+        <v>0</v>
+      </c>
+      <c r="N153" s="3">
+        <v>0</v>
+      </c>
+      <c r="O153" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P153" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q153" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A154" s="3">
+        <v>152</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C154" s="3">
+        <v>4</v>
+      </c>
+      <c r="D154" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E154" s="3">
+        <v>300000</v>
+      </c>
+      <c r="F154" s="3">
+        <v>47</v>
+      </c>
+      <c r="G154" s="3">
+        <v>0</v>
+      </c>
+      <c r="H154" s="3">
+        <v>2.75E-2</v>
+      </c>
+      <c r="I154" s="3">
+        <v>4</v>
+      </c>
+      <c r="J154" s="3">
+        <v>2800000</v>
+      </c>
+      <c r="K154" s="3">
+        <v>190000</v>
+      </c>
+      <c r="L154" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M154" s="3">
+        <v>0</v>
+      </c>
+      <c r="N154" s="3">
+        <v>0</v>
+      </c>
+      <c r="O154" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P154" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q154" s="3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEFF121-5A3A-47F7-8689-45E0DD8111F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0584F32C-BB9C-417B-9F7E-F84CDED6C8F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="171">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -637,30 +637,64 @@
     <t>닌자노리개2</t>
   </si>
   <si>
-    <t>보스검0</t>
+    <t>황제검0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>보스검1</t>
-  </si>
-  <si>
-    <t>보스검2</t>
-  </si>
-  <si>
-    <t>보스검3</t>
-  </si>
-  <si>
-    <t>노리개0</t>
+    <t>황제검1</t>
+  </si>
+  <si>
+    <t>황제검2</t>
+  </si>
+  <si>
+    <t>황제검3</t>
+  </si>
+  <si>
+    <t>황제노리개0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>노리개1</t>
-  </si>
-  <si>
-    <t>노리개2</t>
-  </si>
-  <si>
-    <t>노리개3</t>
+    <t>황제노리개1</t>
+  </si>
+  <si>
+    <t>황제노리개2</t>
+  </si>
+  <si>
+    <t>황제노리개3</t>
+  </si>
+  <si>
+    <t>암흑검0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암흑검1</t>
+  </si>
+  <si>
+    <t>암흑검2</t>
+  </si>
+  <si>
+    <t>암흑검3</t>
+  </si>
+  <si>
+    <t>암흑노리개0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암흑노리개1</t>
+  </si>
+  <si>
+    <t>암흑노리개2</t>
+  </si>
+  <si>
+    <t>암흑노리개3</t>
+  </si>
+  <si>
+    <t>심연문지기검0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심연문지기노리개0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1094,11 +1128,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:R154"/>
+  <dimension ref="A1:R164"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A147" sqref="A147:XFD147"/>
+      <selection pane="bottomLeft" activeCell="H162" sqref="H162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9300,6 +9334,536 @@
         <v>0</v>
       </c>
     </row>
+    <row r="155" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A155" s="3">
+        <v>153</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C155" s="3">
+        <v>3</v>
+      </c>
+      <c r="D155" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E155" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F155" s="3">
+        <v>50</v>
+      </c>
+      <c r="G155" s="3">
+        <v>0</v>
+      </c>
+      <c r="H155" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="I155" s="3">
+        <v>27</v>
+      </c>
+      <c r="J155" s="3">
+        <v>0</v>
+      </c>
+      <c r="K155" s="3">
+        <v>30</v>
+      </c>
+      <c r="L155" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M155" s="3">
+        <v>0</v>
+      </c>
+      <c r="N155" s="3">
+        <v>0</v>
+      </c>
+      <c r="O155" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P155" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q155" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A156" s="3">
+        <v>154</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C156" s="3">
+        <v>4</v>
+      </c>
+      <c r="D156" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E156" s="3">
+        <v>300000</v>
+      </c>
+      <c r="F156" s="3">
+        <v>50</v>
+      </c>
+      <c r="G156" s="3">
+        <v>0</v>
+      </c>
+      <c r="H156" s="3">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="I156" s="3">
+        <v>4</v>
+      </c>
+      <c r="J156" s="3">
+        <v>2900000</v>
+      </c>
+      <c r="K156" s="3">
+        <v>195000</v>
+      </c>
+      <c r="L156" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M156" s="3">
+        <v>0</v>
+      </c>
+      <c r="N156" s="3">
+        <v>0</v>
+      </c>
+      <c r="O156" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P156" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q156" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A157" s="3">
+        <v>155</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C157" s="3">
+        <v>3</v>
+      </c>
+      <c r="D157" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E157" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F157" s="3">
+        <v>50</v>
+      </c>
+      <c r="G157" s="3">
+        <v>0</v>
+      </c>
+      <c r="H157" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="I157" s="3">
+        <v>27</v>
+      </c>
+      <c r="J157" s="3">
+        <v>0</v>
+      </c>
+      <c r="K157" s="3">
+        <v>30</v>
+      </c>
+      <c r="L157" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M157" s="3">
+        <v>0</v>
+      </c>
+      <c r="N157" s="3">
+        <v>0</v>
+      </c>
+      <c r="O157" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P157" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q157" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A158" s="3">
+        <v>156</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C158" s="3">
+        <v>3</v>
+      </c>
+      <c r="D158" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E158" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F158" s="3">
+        <v>50</v>
+      </c>
+      <c r="G158" s="3">
+        <v>0</v>
+      </c>
+      <c r="H158" s="3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I158" s="3">
+        <v>27</v>
+      </c>
+      <c r="J158" s="3">
+        <v>0</v>
+      </c>
+      <c r="K158" s="3">
+        <v>30</v>
+      </c>
+      <c r="L158" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M158" s="3">
+        <v>0</v>
+      </c>
+      <c r="N158" s="3">
+        <v>0</v>
+      </c>
+      <c r="O158" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P158" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q158" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A159" s="3">
+        <v>157</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C159" s="3">
+        <v>3</v>
+      </c>
+      <c r="D159" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E159" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F159" s="3">
+        <v>50</v>
+      </c>
+      <c r="G159" s="3">
+        <v>0</v>
+      </c>
+      <c r="H159" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="I159" s="3">
+        <v>27</v>
+      </c>
+      <c r="J159" s="3">
+        <v>0</v>
+      </c>
+      <c r="K159" s="3">
+        <v>30</v>
+      </c>
+      <c r="L159" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M159" s="3">
+        <v>0</v>
+      </c>
+      <c r="N159" s="3">
+        <v>0</v>
+      </c>
+      <c r="O159" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P159" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q159" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A160" s="3">
+        <v>158</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C160" s="3">
+        <v>3</v>
+      </c>
+      <c r="D160" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E160" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F160" s="3">
+        <v>50</v>
+      </c>
+      <c r="G160" s="3">
+        <v>0</v>
+      </c>
+      <c r="H160" s="3">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="I160" s="3">
+        <v>27</v>
+      </c>
+      <c r="J160" s="3">
+        <v>0</v>
+      </c>
+      <c r="K160" s="3">
+        <v>30</v>
+      </c>
+      <c r="L160" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M160" s="3">
+        <v>0</v>
+      </c>
+      <c r="N160" s="3">
+        <v>0</v>
+      </c>
+      <c r="O160" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P160" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q160" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A161" s="3">
+        <v>159</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C161" s="3">
+        <v>4</v>
+      </c>
+      <c r="D161" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E161" s="3">
+        <v>300000</v>
+      </c>
+      <c r="F161" s="3">
+        <v>50</v>
+      </c>
+      <c r="G161" s="3">
+        <v>0</v>
+      </c>
+      <c r="H161" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="I161" s="3">
+        <v>4</v>
+      </c>
+      <c r="J161" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="K161" s="3">
+        <v>200000</v>
+      </c>
+      <c r="L161" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M161" s="3">
+        <v>0</v>
+      </c>
+      <c r="N161" s="3">
+        <v>0</v>
+      </c>
+      <c r="O161" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P161" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q161" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A162" s="3">
+        <v>160</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C162" s="3">
+        <v>4</v>
+      </c>
+      <c r="D162" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E162" s="3">
+        <v>300000</v>
+      </c>
+      <c r="F162" s="3">
+        <v>50</v>
+      </c>
+      <c r="G162" s="3">
+        <v>0</v>
+      </c>
+      <c r="H162" s="3">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="I162" s="3">
+        <v>4</v>
+      </c>
+      <c r="J162" s="3">
+        <v>3100000</v>
+      </c>
+      <c r="K162" s="3">
+        <v>205000</v>
+      </c>
+      <c r="L162" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M162" s="3">
+        <v>0</v>
+      </c>
+      <c r="N162" s="3">
+        <v>0</v>
+      </c>
+      <c r="O162" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P162" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q162" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A163" s="3">
+        <v>161</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C163" s="3">
+        <v>4</v>
+      </c>
+      <c r="D163" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E163" s="3">
+        <v>300000</v>
+      </c>
+      <c r="F163" s="3">
+        <v>50</v>
+      </c>
+      <c r="G163" s="3">
+        <v>0</v>
+      </c>
+      <c r="H163" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="I163" s="3">
+        <v>4</v>
+      </c>
+      <c r="J163" s="3">
+        <v>3200000</v>
+      </c>
+      <c r="K163" s="3">
+        <v>210000</v>
+      </c>
+      <c r="L163" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M163" s="3">
+        <v>0</v>
+      </c>
+      <c r="N163" s="3">
+        <v>0</v>
+      </c>
+      <c r="O163" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P163" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q163" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A164" s="3">
+        <v>162</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C164" s="3">
+        <v>4</v>
+      </c>
+      <c r="D164" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E164" s="3">
+        <v>300000</v>
+      </c>
+      <c r="F164" s="3">
+        <v>50</v>
+      </c>
+      <c r="G164" s="3">
+        <v>0</v>
+      </c>
+      <c r="H164" s="3">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="I164" s="3">
+        <v>4</v>
+      </c>
+      <c r="J164" s="3">
+        <v>3300000</v>
+      </c>
+      <c r="K164" s="3">
+        <v>215000</v>
+      </c>
+      <c r="L164" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M164" s="3">
+        <v>0</v>
+      </c>
+      <c r="N164" s="3">
+        <v>0</v>
+      </c>
+      <c r="O164" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P164" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q164" s="3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0584F32C-BB9C-417B-9F7E-F84CDED6C8F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D54E3F1-9791-4E7A-85D0-2731F6D1A9A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponEffect" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="177">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -695,6 +695,28 @@
   <si>
     <t>심연문지기노리개0</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주인검1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주인검2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주인검3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주인노리개1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주인노리개2</t>
+  </si>
+  <si>
+    <t>주인노리개3</t>
   </si>
 </sst>
 </file>
@@ -1128,11 +1150,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:R164"/>
+  <dimension ref="A1:R170"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H162" sqref="H162"/>
+      <selection pane="bottomLeft" activeCell="B159" sqref="B159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9864,6 +9886,324 @@
         <v>0</v>
       </c>
     </row>
+    <row r="165" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A165" s="3">
+        <v>163</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C165" s="3">
+        <v>3</v>
+      </c>
+      <c r="D165" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E165" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F165" s="3">
+        <v>50</v>
+      </c>
+      <c r="G165" s="3">
+        <v>0</v>
+      </c>
+      <c r="H165" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="I165" s="3">
+        <v>27</v>
+      </c>
+      <c r="J165" s="3">
+        <v>0</v>
+      </c>
+      <c r="K165" s="3">
+        <v>30</v>
+      </c>
+      <c r="L165" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M165" s="3">
+        <v>0</v>
+      </c>
+      <c r="N165" s="3">
+        <v>0</v>
+      </c>
+      <c r="O165" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P165" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q165" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A166" s="3">
+        <v>164</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C166" s="3">
+        <v>3</v>
+      </c>
+      <c r="D166" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E166" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F166" s="3">
+        <v>50</v>
+      </c>
+      <c r="G166" s="3">
+        <v>0</v>
+      </c>
+      <c r="H166" s="3">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="I166" s="3">
+        <v>27</v>
+      </c>
+      <c r="J166" s="3">
+        <v>0</v>
+      </c>
+      <c r="K166" s="3">
+        <v>30</v>
+      </c>
+      <c r="L166" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M166" s="3">
+        <v>0</v>
+      </c>
+      <c r="N166" s="3">
+        <v>0</v>
+      </c>
+      <c r="O166" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P166" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q166" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A167" s="3">
+        <v>165</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C167" s="3">
+        <v>3</v>
+      </c>
+      <c r="D167" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E167" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F167" s="3">
+        <v>50</v>
+      </c>
+      <c r="G167" s="3">
+        <v>0</v>
+      </c>
+      <c r="H167" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="I167" s="3">
+        <v>27</v>
+      </c>
+      <c r="J167" s="3">
+        <v>0</v>
+      </c>
+      <c r="K167" s="3">
+        <v>30</v>
+      </c>
+      <c r="L167" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M167" s="3">
+        <v>0</v>
+      </c>
+      <c r="N167" s="3">
+        <v>0</v>
+      </c>
+      <c r="O167" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P167" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q167" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A168" s="3">
+        <v>166</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C168" s="3">
+        <v>4</v>
+      </c>
+      <c r="D168" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E168" s="3">
+        <v>300000</v>
+      </c>
+      <c r="F168" s="3">
+        <v>50</v>
+      </c>
+      <c r="G168" s="3">
+        <v>0</v>
+      </c>
+      <c r="H168" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="I168" s="3">
+        <v>4</v>
+      </c>
+      <c r="J168" s="3">
+        <v>3400000</v>
+      </c>
+      <c r="K168" s="3">
+        <v>220000</v>
+      </c>
+      <c r="L168" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M168" s="3">
+        <v>0</v>
+      </c>
+      <c r="N168" s="3">
+        <v>0</v>
+      </c>
+      <c r="O168" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P168" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q168" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A169" s="3">
+        <v>167</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C169" s="3">
+        <v>4</v>
+      </c>
+      <c r="D169" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E169" s="3">
+        <v>300000</v>
+      </c>
+      <c r="F169" s="3">
+        <v>50</v>
+      </c>
+      <c r="G169" s="3">
+        <v>0</v>
+      </c>
+      <c r="H169" s="3">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="I169" s="3">
+        <v>4</v>
+      </c>
+      <c r="J169" s="3">
+        <v>3500000</v>
+      </c>
+      <c r="K169" s="3">
+        <v>225000</v>
+      </c>
+      <c r="L169" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M169" s="3">
+        <v>0</v>
+      </c>
+      <c r="N169" s="3">
+        <v>0</v>
+      </c>
+      <c r="O169" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P169" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q169" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A170" s="3">
+        <v>168</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C170" s="3">
+        <v>4</v>
+      </c>
+      <c r="D170" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E170" s="3">
+        <v>300000</v>
+      </c>
+      <c r="F170" s="3">
+        <v>50</v>
+      </c>
+      <c r="G170" s="3">
+        <v>0</v>
+      </c>
+      <c r="H170" s="3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I170" s="3">
+        <v>4</v>
+      </c>
+      <c r="J170" s="3">
+        <v>3600000</v>
+      </c>
+      <c r="K170" s="3">
+        <v>230000</v>
+      </c>
+      <c r="L170" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M170" s="3">
+        <v>0</v>
+      </c>
+      <c r="N170" s="3">
+        <v>0</v>
+      </c>
+      <c r="O170" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P170" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q170" s="3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D54E3F1-9791-4E7A-85D0-2731F6D1A9A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53507B9D-7031-4F2E-80B9-11036755F5F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponEffect" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="183">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -717,6 +717,26 @@
   </si>
   <si>
     <t>주인노리개3</t>
+  </si>
+  <si>
+    <t>신선검0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신선검1</t>
+  </si>
+  <si>
+    <t>신선검2</t>
+  </si>
+  <si>
+    <t>신선노리개0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신선노리개1</t>
+  </si>
+  <si>
+    <t>신선노리개2</t>
   </si>
 </sst>
 </file>
@@ -1150,11 +1170,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:R170"/>
+  <dimension ref="A1:R176"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B159" sqref="B159"/>
+      <pane ySplit="1" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G162" sqref="G162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10204,6 +10224,324 @@
         <v>0</v>
       </c>
     </row>
+    <row r="171" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A171" s="3">
+        <v>169</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C171" s="3">
+        <v>3</v>
+      </c>
+      <c r="D171" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E171" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F171" s="3">
+        <v>54</v>
+      </c>
+      <c r="G171" s="3">
+        <v>0</v>
+      </c>
+      <c r="H171" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I171" s="3">
+        <v>27</v>
+      </c>
+      <c r="J171" s="3">
+        <v>0</v>
+      </c>
+      <c r="K171" s="3">
+        <v>30</v>
+      </c>
+      <c r="L171" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M171" s="3">
+        <v>0</v>
+      </c>
+      <c r="N171" s="3">
+        <v>0</v>
+      </c>
+      <c r="O171" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P171" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q171" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A172" s="3">
+        <v>170</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C172" s="3">
+        <v>3</v>
+      </c>
+      <c r="D172" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E172" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F172" s="3">
+        <v>54</v>
+      </c>
+      <c r="G172" s="3">
+        <v>0</v>
+      </c>
+      <c r="H172" s="3">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="I172" s="3">
+        <v>27</v>
+      </c>
+      <c r="J172" s="3">
+        <v>0</v>
+      </c>
+      <c r="K172" s="3">
+        <v>30</v>
+      </c>
+      <c r="L172" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M172" s="3">
+        <v>0</v>
+      </c>
+      <c r="N172" s="3">
+        <v>0</v>
+      </c>
+      <c r="O172" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P172" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q172" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A173" s="3">
+        <v>171</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C173" s="3">
+        <v>3</v>
+      </c>
+      <c r="D173" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E173" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F173" s="3">
+        <v>54</v>
+      </c>
+      <c r="G173" s="3">
+        <v>0</v>
+      </c>
+      <c r="H173" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="I173" s="3">
+        <v>27</v>
+      </c>
+      <c r="J173" s="3">
+        <v>0</v>
+      </c>
+      <c r="K173" s="3">
+        <v>30</v>
+      </c>
+      <c r="L173" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M173" s="3">
+        <v>0</v>
+      </c>
+      <c r="N173" s="3">
+        <v>0</v>
+      </c>
+      <c r="O173" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P173" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q173" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A174" s="3">
+        <v>172</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C174" s="3">
+        <v>4</v>
+      </c>
+      <c r="D174" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E174" s="3">
+        <v>300000</v>
+      </c>
+      <c r="F174" s="3">
+        <v>54</v>
+      </c>
+      <c r="G174" s="3">
+        <v>0</v>
+      </c>
+      <c r="H174" s="3">
+        <v>1.25E-3</v>
+      </c>
+      <c r="I174" s="3">
+        <v>4</v>
+      </c>
+      <c r="J174" s="3">
+        <v>3700000</v>
+      </c>
+      <c r="K174" s="3">
+        <v>235000</v>
+      </c>
+      <c r="L174" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M174" s="3">
+        <v>0</v>
+      </c>
+      <c r="N174" s="3">
+        <v>0</v>
+      </c>
+      <c r="O174" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P174" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q174" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A175" s="3">
+        <v>173</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C175" s="3">
+        <v>4</v>
+      </c>
+      <c r="D175" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E175" s="3">
+        <v>300000</v>
+      </c>
+      <c r="F175" s="3">
+        <v>54</v>
+      </c>
+      <c r="G175" s="3">
+        <v>0</v>
+      </c>
+      <c r="H175" s="3">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="I175" s="3">
+        <v>4</v>
+      </c>
+      <c r="J175" s="3">
+        <v>3800000</v>
+      </c>
+      <c r="K175" s="3">
+        <v>240000</v>
+      </c>
+      <c r="L175" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M175" s="3">
+        <v>0</v>
+      </c>
+      <c r="N175" s="3">
+        <v>0</v>
+      </c>
+      <c r="O175" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P175" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q175" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A176" s="3">
+        <v>174</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C176" s="3">
+        <v>4</v>
+      </c>
+      <c r="D176" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E176" s="3">
+        <v>300000</v>
+      </c>
+      <c r="F176" s="3">
+        <v>54</v>
+      </c>
+      <c r="G176" s="3">
+        <v>0</v>
+      </c>
+      <c r="H176" s="3">
+        <v>3.7499999999999999E-3</v>
+      </c>
+      <c r="I176" s="3">
+        <v>4</v>
+      </c>
+      <c r="J176" s="3">
+        <v>3900000</v>
+      </c>
+      <c r="K176" s="3">
+        <v>245000</v>
+      </c>
+      <c r="L176" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M176" s="3">
+        <v>0</v>
+      </c>
+      <c r="N176" s="3">
+        <v>0</v>
+      </c>
+      <c r="O176" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P176" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q176" s="3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53507B9D-7031-4F2E-80B9-11036755F5F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F264B54-F028-4F2B-8431-87D2E5B4AFB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponEffect" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="189">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -737,6 +737,30 @@
   </si>
   <si>
     <t>신선노리개2</t>
+  </si>
+  <si>
+    <t>신선검3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신선검4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신선노리개3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신선노리개4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천선노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천선무기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1170,11 +1194,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:R176"/>
+  <dimension ref="A1:R182"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G162" sqref="G162"/>
+      <pane ySplit="1" topLeftCell="A150" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H180" sqref="H180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10542,6 +10566,324 @@
         <v>0</v>
       </c>
     </row>
+    <row r="177" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A177" s="3">
+        <v>175</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C177" s="3">
+        <v>3</v>
+      </c>
+      <c r="D177" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E177" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F177" s="3">
+        <v>54</v>
+      </c>
+      <c r="G177" s="3">
+        <v>0</v>
+      </c>
+      <c r="H177" s="3">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="I177" s="3">
+        <v>27</v>
+      </c>
+      <c r="J177" s="3">
+        <v>0</v>
+      </c>
+      <c r="K177" s="3">
+        <v>30</v>
+      </c>
+      <c r="L177" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M177" s="3">
+        <v>0</v>
+      </c>
+      <c r="N177" s="3">
+        <v>0</v>
+      </c>
+      <c r="O177" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P177" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q177" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A178" s="3">
+        <v>176</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C178" s="3">
+        <v>3</v>
+      </c>
+      <c r="D178" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E178" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F178" s="3">
+        <v>54</v>
+      </c>
+      <c r="G178" s="3">
+        <v>0</v>
+      </c>
+      <c r="H178" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="I178" s="3">
+        <v>27</v>
+      </c>
+      <c r="J178" s="3">
+        <v>0</v>
+      </c>
+      <c r="K178" s="3">
+        <v>30</v>
+      </c>
+      <c r="L178" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M178" s="3">
+        <v>0</v>
+      </c>
+      <c r="N178" s="3">
+        <v>0</v>
+      </c>
+      <c r="O178" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P178" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q178" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A179" s="3">
+        <v>177</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C179" s="3">
+        <v>4</v>
+      </c>
+      <c r="D179" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E179" s="3">
+        <v>300000</v>
+      </c>
+      <c r="F179" s="3">
+        <v>54</v>
+      </c>
+      <c r="G179" s="3">
+        <v>0</v>
+      </c>
+      <c r="H179" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I179" s="3">
+        <v>4</v>
+      </c>
+      <c r="J179" s="3">
+        <v>4000000</v>
+      </c>
+      <c r="K179" s="3">
+        <v>250000</v>
+      </c>
+      <c r="L179" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M179" s="3">
+        <v>0</v>
+      </c>
+      <c r="N179" s="3">
+        <v>0</v>
+      </c>
+      <c r="O179" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P179" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q179" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A180" s="3">
+        <v>178</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C180" s="3">
+        <v>4</v>
+      </c>
+      <c r="D180" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E180" s="3">
+        <v>300000</v>
+      </c>
+      <c r="F180" s="3">
+        <v>54</v>
+      </c>
+      <c r="G180" s="3">
+        <v>0</v>
+      </c>
+      <c r="H180" s="3">
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="I180" s="3">
+        <v>4</v>
+      </c>
+      <c r="J180" s="3">
+        <v>4100000</v>
+      </c>
+      <c r="K180" s="3">
+        <v>255000</v>
+      </c>
+      <c r="L180" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M180" s="3">
+        <v>0</v>
+      </c>
+      <c r="N180" s="3">
+        <v>0</v>
+      </c>
+      <c r="O180" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P180" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q180" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A181" s="3">
+        <v>179</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C181" s="3">
+        <v>3</v>
+      </c>
+      <c r="D181" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E181" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F181" s="3">
+        <v>54</v>
+      </c>
+      <c r="G181" s="3">
+        <v>0</v>
+      </c>
+      <c r="H181" s="3">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="I181" s="3">
+        <v>27</v>
+      </c>
+      <c r="J181" s="3">
+        <v>0</v>
+      </c>
+      <c r="K181" s="3">
+        <v>30</v>
+      </c>
+      <c r="L181" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M181" s="3">
+        <v>0</v>
+      </c>
+      <c r="N181" s="3">
+        <v>0</v>
+      </c>
+      <c r="O181" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P181" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q181" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A182" s="3">
+        <v>180</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C182" s="3">
+        <v>4</v>
+      </c>
+      <c r="D182" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E182" s="3">
+        <v>300000</v>
+      </c>
+      <c r="F182" s="3">
+        <v>54</v>
+      </c>
+      <c r="G182" s="3">
+        <v>0</v>
+      </c>
+      <c r="H182" s="3">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="I182" s="3">
+        <v>4</v>
+      </c>
+      <c r="J182" s="3">
+        <v>4200000</v>
+      </c>
+      <c r="K182" s="3">
+        <v>260000</v>
+      </c>
+      <c r="L182" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M182" s="3">
+        <v>0</v>
+      </c>
+      <c r="N182" s="3">
+        <v>0</v>
+      </c>
+      <c r="O182" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P182" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q182" s="3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F264B54-F028-4F2B-8431-87D2E5B4AFB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39472C98-2024-4A0C-8486-21B3BAE416B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponEffect" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="195">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -761,6 +761,26 @@
   <si>
     <t>천선무기</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천선검1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천선검2</t>
+  </si>
+  <si>
+    <t>천선검3</t>
+  </si>
+  <si>
+    <t>천선노리개1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천선노리개2</t>
+  </si>
+  <si>
+    <t>천선노리개3</t>
   </si>
 </sst>
 </file>
@@ -1194,11 +1214,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:R182"/>
+  <dimension ref="A1:Q188"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A150" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H180" sqref="H180"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2069,7 +2089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2122,7 +2142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2175,7 +2195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -2228,7 +2248,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="20" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -2281,7 +2301,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="21" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -2334,7 +2354,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="22" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -2387,7 +2407,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2440,7 +2460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -2493,7 +2513,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -2546,7 +2566,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -2599,7 +2619,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="27" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -2652,7 +2672,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2705,7 +2725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -2757,9 +2777,8 @@
       <c r="Q29" s="2">
         <v>0.5</v>
       </c>
-      <c r="R29" s="2"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2812,7 +2831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2865,7 +2884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2918,7 +2937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -2970,9 +2989,8 @@
       <c r="Q33" s="2">
         <v>0</v>
       </c>
-      <c r="R33" s="2"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -3024,9 +3042,8 @@
       <c r="Q34" s="2">
         <v>0</v>
       </c>
-      <c r="R34" s="2"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -3078,9 +3095,8 @@
       <c r="Q35" s="2">
         <v>0</v>
       </c>
-      <c r="R35" s="2"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -3132,9 +3148,8 @@
       <c r="Q36" s="2">
         <v>0</v>
       </c>
-      <c r="R36" s="2"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -3187,7 +3202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -3240,7 +3255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>37</v>
       </c>
@@ -3292,9 +3307,8 @@
       <c r="Q39" s="2">
         <v>0</v>
       </c>
-      <c r="R39" s="2"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>38</v>
       </c>
@@ -3346,9 +3360,8 @@
       <c r="Q40" s="2">
         <v>0</v>
       </c>
-      <c r="R40" s="2"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -3401,7 +3414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -3454,7 +3467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -3507,7 +3520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>42</v>
       </c>
@@ -3559,9 +3572,8 @@
       <c r="Q44" s="2">
         <v>0</v>
       </c>
-      <c r="R44" s="2"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -3614,7 +3626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>44</v>
       </c>
@@ -3666,9 +3678,8 @@
       <c r="Q46" s="2">
         <v>0</v>
       </c>
-      <c r="R46" s="2"/>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>45</v>
       </c>
@@ -3720,9 +3731,8 @@
       <c r="Q47" s="2">
         <v>0</v>
       </c>
-      <c r="R47" s="2"/>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -3775,7 +3785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>47</v>
       </c>
@@ -3827,9 +3837,8 @@
       <c r="Q49" s="2">
         <v>0</v>
       </c>
-      <c r="R49" s="2"/>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -3882,7 +3891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -3935,7 +3944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>50</v>
       </c>
@@ -3987,9 +3996,8 @@
       <c r="Q52" s="2">
         <v>0</v>
       </c>
-      <c r="R52" s="2"/>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>51</v>
       </c>
@@ -4041,9 +4049,8 @@
       <c r="Q53" s="2">
         <v>0</v>
       </c>
-      <c r="R53" s="2"/>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>52</v>
       </c>
@@ -4096,7 +4103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>53</v>
       </c>
@@ -4149,7 +4156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>54</v>
       </c>
@@ -4202,7 +4209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>55</v>
       </c>
@@ -4216,7 +4223,7 @@
         <v>40000000</v>
       </c>
       <c r="E57" s="3">
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="F57" s="3">
         <v>35</v>
@@ -4255,7 +4262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>56</v>
       </c>
@@ -4308,7 +4315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>57</v>
       </c>
@@ -4361,7 +4368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>58</v>
       </c>
@@ -4375,7 +4382,7 @@
         <v>40000000</v>
       </c>
       <c r="E60" s="2">
-        <v>250000</v>
+        <v>350000</v>
       </c>
       <c r="F60" s="2">
         <v>36</v>
@@ -4413,9 +4420,8 @@
       <c r="Q60" s="2">
         <v>0</v>
       </c>
-      <c r="R60" s="2"/>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>59</v>
       </c>
@@ -4429,7 +4435,7 @@
         <v>40000000</v>
       </c>
       <c r="E61" s="2">
-        <v>250000</v>
+        <v>400000</v>
       </c>
       <c r="F61" s="2">
         <v>36</v>
@@ -4467,9 +4473,8 @@
       <c r="Q61" s="2">
         <v>0</v>
       </c>
-      <c r="R61" s="2"/>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>60</v>
       </c>
@@ -4483,7 +4488,7 @@
         <v>40000000</v>
       </c>
       <c r="E62" s="2">
-        <v>250000</v>
+        <v>450000</v>
       </c>
       <c r="F62" s="2">
         <v>36</v>
@@ -4521,9 +4526,8 @@
       <c r="Q62" s="2">
         <v>0</v>
       </c>
-      <c r="R62" s="2"/>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>61</v>
       </c>
@@ -4537,7 +4541,7 @@
         <v>40000000</v>
       </c>
       <c r="E63" s="2">
-        <v>250000</v>
+        <v>500000</v>
       </c>
       <c r="F63" s="2">
         <v>36</v>
@@ -4576,7 +4580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>62</v>
       </c>
@@ -4590,7 +4594,7 @@
         <v>40000000</v>
       </c>
       <c r="E64" s="2">
-        <v>250000</v>
+        <v>550000</v>
       </c>
       <c r="F64" s="2">
         <v>36</v>
@@ -4629,7 +4633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>63</v>
       </c>
@@ -4682,7 +4686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>64</v>
       </c>
@@ -4735,7 +4739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>65</v>
       </c>
@@ -4788,7 +4792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>66</v>
       </c>
@@ -4841,7 +4845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>67</v>
       </c>
@@ -4855,7 +4859,7 @@
         <v>40000000</v>
       </c>
       <c r="E69" s="2">
-        <v>250000</v>
+        <v>600000</v>
       </c>
       <c r="F69" s="2">
         <v>36</v>
@@ -4894,7 +4898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>68</v>
       </c>
@@ -4908,7 +4912,7 @@
         <v>40000000</v>
       </c>
       <c r="E70" s="2">
-        <v>250000</v>
+        <v>650000</v>
       </c>
       <c r="F70" s="2">
         <v>36</v>
@@ -4947,7 +4951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>69</v>
       </c>
@@ -5000,7 +5004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>70</v>
       </c>
@@ -5053,7 +5057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>71</v>
       </c>
@@ -5106,7 +5110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>72</v>
       </c>
@@ -5120,7 +5124,7 @@
         <v>40000000</v>
       </c>
       <c r="E74" s="3">
-        <v>300000</v>
+        <v>700000</v>
       </c>
       <c r="F74" s="3">
         <v>39</v>
@@ -5159,7 +5163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>73</v>
       </c>
@@ -5173,7 +5177,7 @@
         <v>40000000</v>
       </c>
       <c r="E75" s="3">
-        <v>300000</v>
+        <v>750000</v>
       </c>
       <c r="F75" s="3">
         <v>39</v>
@@ -5212,7 +5216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>74</v>
       </c>
@@ -5226,7 +5230,7 @@
         <v>40000000</v>
       </c>
       <c r="E76" s="3">
-        <v>300000</v>
+        <v>800000</v>
       </c>
       <c r="F76" s="3">
         <v>39</v>
@@ -5265,7 +5269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>75</v>
       </c>
@@ -5317,9 +5321,8 @@
       <c r="Q77" s="2">
         <v>0</v>
       </c>
-      <c r="R77" s="2"/>
-    </row>
-    <row r="78" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>76</v>
       </c>
@@ -5372,7 +5375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>77</v>
       </c>
@@ -5425,7 +5428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>78</v>
       </c>
@@ -5439,7 +5442,7 @@
         <v>40000000</v>
       </c>
       <c r="E80" s="3">
-        <v>300000</v>
+        <v>850000</v>
       </c>
       <c r="F80" s="3">
         <v>39</v>
@@ -5492,7 +5495,7 @@
         <v>40000000</v>
       </c>
       <c r="E81" s="3">
-        <v>300000</v>
+        <v>900000</v>
       </c>
       <c r="F81" s="3">
         <v>39</v>
@@ -5651,7 +5654,7 @@
         <v>40000000</v>
       </c>
       <c r="E84" s="3">
-        <v>300000</v>
+        <v>950000</v>
       </c>
       <c r="F84" s="3">
         <v>39</v>
@@ -5704,7 +5707,7 @@
         <v>40000000</v>
       </c>
       <c r="E85" s="3">
-        <v>300000</v>
+        <v>1000000</v>
       </c>
       <c r="F85" s="3">
         <v>39</v>
@@ -6128,7 +6131,7 @@
         <v>40000000</v>
       </c>
       <c r="E93" s="3">
-        <v>300000</v>
+        <v>1050000</v>
       </c>
       <c r="F93" s="3">
         <v>39</v>
@@ -6181,7 +6184,7 @@
         <v>40000000</v>
       </c>
       <c r="E94" s="3">
-        <v>300000</v>
+        <v>1100000</v>
       </c>
       <c r="F94" s="3">
         <v>39</v>
@@ -6234,7 +6237,7 @@
         <v>40000000</v>
       </c>
       <c r="E95" s="3">
-        <v>300000</v>
+        <v>1150000</v>
       </c>
       <c r="F95" s="3">
         <v>39</v>
@@ -6340,7 +6343,7 @@
         <v>40000000</v>
       </c>
       <c r="E97" s="3">
-        <v>300000</v>
+        <v>1200000</v>
       </c>
       <c r="F97" s="3">
         <v>43</v>
@@ -7665,7 +7668,7 @@
         <v>40000000</v>
       </c>
       <c r="E122" s="3">
-        <v>300000</v>
+        <v>1250000</v>
       </c>
       <c r="F122" s="3">
         <v>43</v>
@@ -7824,7 +7827,7 @@
         <v>40000000</v>
       </c>
       <c r="E125" s="3">
-        <v>300000</v>
+        <v>1300000</v>
       </c>
       <c r="F125" s="3">
         <v>43</v>
@@ -7877,7 +7880,7 @@
         <v>40000000</v>
       </c>
       <c r="E126" s="3">
-        <v>300000</v>
+        <v>1350000</v>
       </c>
       <c r="F126" s="3">
         <v>43</v>
@@ -8089,7 +8092,7 @@
         <v>40000000</v>
       </c>
       <c r="E130" s="3">
-        <v>300000</v>
+        <v>1400000</v>
       </c>
       <c r="F130" s="3">
         <v>43</v>
@@ -8142,7 +8145,7 @@
         <v>40000000</v>
       </c>
       <c r="E131" s="3">
-        <v>300000</v>
+        <v>1450000</v>
       </c>
       <c r="F131" s="3">
         <v>43</v>
@@ -8195,7 +8198,7 @@
         <v>40000000</v>
       </c>
       <c r="E132" s="3">
-        <v>300000</v>
+        <v>1500000</v>
       </c>
       <c r="F132" s="3">
         <v>43</v>
@@ -8460,7 +8463,7 @@
         <v>40000000</v>
       </c>
       <c r="E137" s="3">
-        <v>300000</v>
+        <v>1550000</v>
       </c>
       <c r="F137" s="3">
         <v>47</v>
@@ -8513,7 +8516,7 @@
         <v>40000000</v>
       </c>
       <c r="E138" s="3">
-        <v>300000</v>
+        <v>1600000</v>
       </c>
       <c r="F138" s="3">
         <v>47</v>
@@ -8566,7 +8569,7 @@
         <v>40000000</v>
       </c>
       <c r="E139" s="3">
-        <v>300000</v>
+        <v>1650000</v>
       </c>
       <c r="F139" s="3">
         <v>47</v>
@@ -8619,7 +8622,7 @@
         <v>40000000</v>
       </c>
       <c r="E140" s="3">
-        <v>300000</v>
+        <v>1700000</v>
       </c>
       <c r="F140" s="3">
         <v>47</v>
@@ -8831,7 +8834,7 @@
         <v>40000000</v>
       </c>
       <c r="E144" s="3">
-        <v>300000</v>
+        <v>1750000</v>
       </c>
       <c r="F144" s="3">
         <v>47</v>
@@ -8884,7 +8887,7 @@
         <v>40000000</v>
       </c>
       <c r="E145" s="3">
-        <v>300000</v>
+        <v>1800000</v>
       </c>
       <c r="F145" s="3">
         <v>47</v>
@@ -8937,7 +8940,7 @@
         <v>40000000</v>
       </c>
       <c r="E146" s="3">
-        <v>300000</v>
+        <v>1850000</v>
       </c>
       <c r="F146" s="3">
         <v>47</v>
@@ -9202,7 +9205,7 @@
         <v>40000000</v>
       </c>
       <c r="E151" s="3">
-        <v>300000</v>
+        <v>1900000</v>
       </c>
       <c r="F151" s="3">
         <v>47</v>
@@ -9255,7 +9258,7 @@
         <v>40000000</v>
       </c>
       <c r="E152" s="3">
-        <v>300000</v>
+        <v>2000000</v>
       </c>
       <c r="F152" s="3">
         <v>47</v>
@@ -9308,7 +9311,7 @@
         <v>40000000</v>
       </c>
       <c r="E153" s="3">
-        <v>300000</v>
+        <v>2050000</v>
       </c>
       <c r="F153" s="3">
         <v>47</v>
@@ -9361,7 +9364,7 @@
         <v>40000000</v>
       </c>
       <c r="E154" s="3">
-        <v>300000</v>
+        <v>2100000</v>
       </c>
       <c r="F154" s="3">
         <v>47</v>
@@ -9467,7 +9470,7 @@
         <v>40000000</v>
       </c>
       <c r="E156" s="3">
-        <v>300000</v>
+        <v>2150000</v>
       </c>
       <c r="F156" s="3">
         <v>50</v>
@@ -9732,7 +9735,7 @@
         <v>40000000</v>
       </c>
       <c r="E161" s="3">
-        <v>300000</v>
+        <v>2200000</v>
       </c>
       <c r="F161" s="3">
         <v>50</v>
@@ -9785,7 +9788,7 @@
         <v>40000000</v>
       </c>
       <c r="E162" s="3">
-        <v>300000</v>
+        <v>2250000</v>
       </c>
       <c r="F162" s="3">
         <v>50</v>
@@ -9838,7 +9841,7 @@
         <v>40000000</v>
       </c>
       <c r="E163" s="3">
-        <v>300000</v>
+        <v>2300000</v>
       </c>
       <c r="F163" s="3">
         <v>50</v>
@@ -9891,7 +9894,7 @@
         <v>40000000</v>
       </c>
       <c r="E164" s="3">
-        <v>300000</v>
+        <v>2350000</v>
       </c>
       <c r="F164" s="3">
         <v>50</v>
@@ -9944,7 +9947,7 @@
         <v>0.6</v>
       </c>
       <c r="E165" s="3">
-        <v>1.5E-3</v>
+        <v>2400000</v>
       </c>
       <c r="F165" s="3">
         <v>50</v>
@@ -10103,7 +10106,7 @@
         <v>40000000</v>
       </c>
       <c r="E168" s="3">
-        <v>300000</v>
+        <v>2450000</v>
       </c>
       <c r="F168" s="3">
         <v>50</v>
@@ -10156,7 +10159,7 @@
         <v>40000000</v>
       </c>
       <c r="E169" s="3">
-        <v>300000</v>
+        <v>2500000</v>
       </c>
       <c r="F169" s="3">
         <v>50</v>
@@ -10209,7 +10212,7 @@
         <v>40000000</v>
       </c>
       <c r="E170" s="3">
-        <v>300000</v>
+        <v>2550000</v>
       </c>
       <c r="F170" s="3">
         <v>50</v>
@@ -10421,7 +10424,7 @@
         <v>40000000</v>
       </c>
       <c r="E174" s="3">
-        <v>300000</v>
+        <v>2600000</v>
       </c>
       <c r="F174" s="3">
         <v>54</v>
@@ -10474,7 +10477,7 @@
         <v>40000000</v>
       </c>
       <c r="E175" s="3">
-        <v>300000</v>
+        <v>2650000</v>
       </c>
       <c r="F175" s="3">
         <v>54</v>
@@ -10527,7 +10530,7 @@
         <v>40000000</v>
       </c>
       <c r="E176" s="3">
-        <v>300000</v>
+        <v>2700000</v>
       </c>
       <c r="F176" s="3">
         <v>54</v>
@@ -10686,7 +10689,7 @@
         <v>40000000</v>
       </c>
       <c r="E179" s="3">
-        <v>300000</v>
+        <v>2750000</v>
       </c>
       <c r="F179" s="3">
         <v>54</v>
@@ -10739,7 +10742,7 @@
         <v>40000000</v>
       </c>
       <c r="E180" s="3">
-        <v>300000</v>
+        <v>2800000</v>
       </c>
       <c r="F180" s="3">
         <v>54</v>
@@ -10845,7 +10848,7 @@
         <v>40000000</v>
       </c>
       <c r="E182" s="3">
-        <v>300000</v>
+        <v>2850000</v>
       </c>
       <c r="F182" s="3">
         <v>54</v>
@@ -10881,6 +10884,324 @@
         <v>0</v>
       </c>
       <c r="Q182" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A183" s="3">
+        <v>181</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C183" s="3">
+        <v>3</v>
+      </c>
+      <c r="D183" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E183" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F183" s="3">
+        <v>54</v>
+      </c>
+      <c r="G183" s="3">
+        <v>0</v>
+      </c>
+      <c r="H183" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="I183" s="3">
+        <v>27</v>
+      </c>
+      <c r="J183" s="3">
+        <v>0</v>
+      </c>
+      <c r="K183" s="3">
+        <v>30</v>
+      </c>
+      <c r="L183" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M183" s="3">
+        <v>0</v>
+      </c>
+      <c r="N183" s="3">
+        <v>0</v>
+      </c>
+      <c r="O183" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P183" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q183" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A184" s="3">
+        <v>182</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C184" s="3">
+        <v>3</v>
+      </c>
+      <c r="D184" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E184" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F184" s="3">
+        <v>54</v>
+      </c>
+      <c r="G184" s="3">
+        <v>0</v>
+      </c>
+      <c r="H184" s="3">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="I184" s="3">
+        <v>27</v>
+      </c>
+      <c r="J184" s="3">
+        <v>0</v>
+      </c>
+      <c r="K184" s="3">
+        <v>30</v>
+      </c>
+      <c r="L184" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M184" s="3">
+        <v>0</v>
+      </c>
+      <c r="N184" s="3">
+        <v>0</v>
+      </c>
+      <c r="O184" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P184" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q184" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A185" s="3">
+        <v>183</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C185" s="3">
+        <v>3</v>
+      </c>
+      <c r="D185" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E185" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F185" s="3">
+        <v>54</v>
+      </c>
+      <c r="G185" s="3">
+        <v>0</v>
+      </c>
+      <c r="H185" s="3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I185" s="3">
+        <v>27</v>
+      </c>
+      <c r="J185" s="3">
+        <v>0</v>
+      </c>
+      <c r="K185" s="3">
+        <v>30</v>
+      </c>
+      <c r="L185" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M185" s="3">
+        <v>0</v>
+      </c>
+      <c r="N185" s="3">
+        <v>0</v>
+      </c>
+      <c r="O185" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P185" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q185" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A186" s="3">
+        <v>184</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C186" s="3">
+        <v>4</v>
+      </c>
+      <c r="D186" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E186" s="3">
+        <v>2900000</v>
+      </c>
+      <c r="F186" s="3">
+        <v>54</v>
+      </c>
+      <c r="G186" s="3">
+        <v>0</v>
+      </c>
+      <c r="H186" s="3">
+        <v>8.7500000000000008E-3</v>
+      </c>
+      <c r="I186" s="3">
+        <v>4</v>
+      </c>
+      <c r="J186" s="3">
+        <v>4300000</v>
+      </c>
+      <c r="K186" s="3">
+        <v>265000</v>
+      </c>
+      <c r="L186" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M186" s="3">
+        <v>0</v>
+      </c>
+      <c r="N186" s="3">
+        <v>0</v>
+      </c>
+      <c r="O186" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P186" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q186" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A187" s="3">
+        <v>185</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C187" s="3">
+        <v>4</v>
+      </c>
+      <c r="D187" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E187" s="3">
+        <v>2950000</v>
+      </c>
+      <c r="F187" s="3">
+        <v>54</v>
+      </c>
+      <c r="G187" s="3">
+        <v>0</v>
+      </c>
+      <c r="H187" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="I187" s="3">
+        <v>4</v>
+      </c>
+      <c r="J187" s="3">
+        <v>4400000</v>
+      </c>
+      <c r="K187" s="3">
+        <v>270000</v>
+      </c>
+      <c r="L187" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M187" s="3">
+        <v>0</v>
+      </c>
+      <c r="N187" s="3">
+        <v>0</v>
+      </c>
+      <c r="O187" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P187" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q187" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A188" s="3">
+        <v>186</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C188" s="3">
+        <v>4</v>
+      </c>
+      <c r="D188" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E188" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="F188" s="3">
+        <v>54</v>
+      </c>
+      <c r="G188" s="3">
+        <v>0</v>
+      </c>
+      <c r="H188" s="3">
+        <v>1.125E-2</v>
+      </c>
+      <c r="I188" s="3">
+        <v>4</v>
+      </c>
+      <c r="J188" s="3">
+        <v>4500000</v>
+      </c>
+      <c r="K188" s="3">
+        <v>275000</v>
+      </c>
+      <c r="L188" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M188" s="3">
+        <v>0</v>
+      </c>
+      <c r="N188" s="3">
+        <v>0</v>
+      </c>
+      <c r="O188" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P188" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q188" s="3">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39472C98-2024-4A0C-8486-21B3BAE416B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E240E31-91D8-4C67-81B7-69C74D5B8A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -1217,8 +1217,8 @@
   <dimension ref="A1:Q188"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D99" sqref="D99"/>
+      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E167" sqref="E167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9947,7 +9947,7 @@
         <v>0.6</v>
       </c>
       <c r="E165" s="3">
-        <v>2400000</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F165" s="3">
         <v>50</v>

--- a/Assets/06.Table/WeaponEffect.xlsx
+++ b/Assets/06.Table/WeaponEffect.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E240E31-91D8-4C67-81B7-69C74D5B8A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A89E47-D7AC-48C5-BE50-615FD18E90BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28770" yWindow="0" windowWidth="28830" windowHeight="15600" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponEffect" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="199">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -781,6 +781,20 @@
   </si>
   <si>
     <t>천선노리개3</t>
+  </si>
+  <si>
+    <t>현상수배검0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현상수배검1</t>
+  </si>
+  <si>
+    <t>현상수배노리개0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현상수배노리개1</t>
   </si>
 </sst>
 </file>
@@ -1214,11 +1228,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:Q188"/>
+  <dimension ref="A1:Q192"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E167" sqref="E167"/>
+      <selection pane="bottomLeft" activeCell="H187" sqref="H187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11205,6 +11219,218 @@
         <v>0</v>
       </c>
     </row>
+    <row r="189" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A189" s="3">
+        <v>187</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C189" s="3">
+        <v>3</v>
+      </c>
+      <c r="D189" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E189" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F189" s="3">
+        <v>60</v>
+      </c>
+      <c r="G189" s="3">
+        <v>0</v>
+      </c>
+      <c r="H189" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I189" s="3">
+        <v>27</v>
+      </c>
+      <c r="J189" s="3">
+        <v>0</v>
+      </c>
+      <c r="K189" s="3">
+        <v>30</v>
+      </c>
+      <c r="L189" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M189" s="3">
+        <v>0</v>
+      </c>
+      <c r="N189" s="3">
+        <v>0</v>
+      </c>
+      <c r="O189" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P189" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q189" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A190" s="3">
+        <v>188</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C190" s="3">
+        <v>3</v>
+      </c>
+      <c r="D190" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E190" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F190" s="3">
+        <v>60</v>
+      </c>
+      <c r="G190" s="3">
+        <v>0</v>
+      </c>
+      <c r="H190" s="3">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="I190" s="3">
+        <v>27</v>
+      </c>
+      <c r="J190" s="3">
+        <v>0</v>
+      </c>
+      <c r="K190" s="3">
+        <v>30</v>
+      </c>
+      <c r="L190" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M190" s="3">
+        <v>0</v>
+      </c>
+      <c r="N190" s="3">
+        <v>0</v>
+      </c>
+      <c r="O190" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P190" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q190" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A191" s="3">
+        <v>189</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C191" s="3">
+        <v>4</v>
+      </c>
+      <c r="D191" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E191" s="3">
+        <v>3100000</v>
+      </c>
+      <c r="F191" s="3">
+        <v>60</v>
+      </c>
+      <c r="G191" s="3">
+        <v>0</v>
+      </c>
+      <c r="H191" s="3">
+        <v>1.25E-3</v>
+      </c>
+      <c r="I191" s="3">
+        <v>4</v>
+      </c>
+      <c r="J191" s="3">
+        <v>4600000</v>
+      </c>
+      <c r="K191" s="3">
+        <v>280000</v>
+      </c>
+      <c r="L191" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M191" s="3">
+        <v>0</v>
+      </c>
+      <c r="N191" s="3">
+        <v>0</v>
+      </c>
+      <c r="O191" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P191" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q191" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A192" s="3">
+        <v>190</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C192" s="3">
+        <v>4</v>
+      </c>
+      <c r="D192" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E192" s="3">
+        <v>3200000</v>
+      </c>
+      <c r="F192" s="3">
+        <v>60</v>
+      </c>
+      <c r="G192" s="3">
+        <v>0</v>
+      </c>
+      <c r="H192" s="3">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="I192" s="3">
+        <v>4</v>
+      </c>
+      <c r="J192" s="3">
+        <v>4700000</v>
+      </c>
+      <c r="K192" s="3">
+        <v>285000</v>
+      </c>
+      <c r="L192" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M192" s="3">
+        <v>0</v>
+      </c>
+      <c r="N192" s="3">
+        <v>0</v>
+      </c>
+      <c r="O192" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P192" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q192" s="3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
